--- a/Output_testing/R1_201907/Country/HKD/MN/ZAMBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ZAMBIA_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.22644</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.126663</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.055173</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.09636500000000001</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-44.06332803391627</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ZAMBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ZAMBIA_201907_HKD_MN.xlsx
@@ -818,136 +818,473 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>237.662691</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>87.76928738719174</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>361.446516</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>75.91973720364381</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>404.176563</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>82.24724948699831</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>162.501672</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>88.13047349689573</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-36.30464020821309</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>9.973841999999999</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.683358970518613</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>79.627398</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>16.72527154852961</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>64.942785</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.2154259530271</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>9.894811000000001</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.36631019151786</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-69.03582928092375</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2.819729</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.041331325138445</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0.929538</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.1952440473400514</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>0.851092</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.1731915763269736</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>4.039253</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.190631487556366</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>772.1884534577656</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.1199134403577182</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.1014425172669182</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.069543</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.2176449057440093</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.613512</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.8750653134998096</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>81.43740990043788</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.558467</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.2062429336847945</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.458035</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.3062517665371958</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.203939</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.2449936002353686</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.401805</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.7602490293165471</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>63.53606693545377</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.989494</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2078374562187849</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.756732</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.764470041920244</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.082589</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.5871267661327869</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>71.77817446150185</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.1357838209391498</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.72355</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.3924070645788734</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.029033</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3800238595628124</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.81707</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1716207984613172</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.878878</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1788458430100364</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.2500596460907503</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-7.329000048236944</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1821053603892584</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.2146532537045548</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1281411177667031</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.492017</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3133894878747954</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.542571</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3139029659382018</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.1967653921732094</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>26.06095772846988</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>17.146216</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>6.332130438205234</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>28.770849</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>6.043149396979437</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>12.888229</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>2.622669108125813</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.910732</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>1.036258358533508</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-73.38058164969644</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1316,607 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>82.74996108545633</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>48.58461402579049</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>98.24337020282165</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>74.51289580048211</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>17.25003891454366</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-54.74394925267485</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>21.74070650499338</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.746397694524496</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.75662979717834</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>51.41538597420951</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1948,473 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>237.662691</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>87.84274564262262</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>361.446516</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>75.93994089279742</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>404.176563</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>82.25648470180712</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>162.501672</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>88.17655649541634</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-36.30464020821309</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>9.973841999999999</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.686441747332174</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>79.627398</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>16.72972246208414</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>64.942785</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>13.21690986037023</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>9.894811000000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.369116209173325</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-69.03582928092375</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.819729</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.042202864429094</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>0.929538</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.1952960055025378</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>0.851092</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.1732110233166351</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4.039253</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.191776958170498</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>772.1884534577656</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.1200138015705481</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.1014695130543288</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.069543</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.2176693442203003</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.613512</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0.8755228809216942</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>81.43740990043788</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.558467</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.206415548121512</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.458035</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.3063332659696459</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.203939</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.2450211095872201</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.401805</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.760646559858517</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>63.53606693545377</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.989494</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2078927657274131</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.756732</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.7645558812047925</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.082589</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.5874337718803058</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>71.77817446150185</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1358974648218662</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.72355</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.3926122523358313</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0.919018</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3396791649346079</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.692632</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.1455220366281247</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.837767</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1704991697382979</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.2411704391184773</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-3.549596040042269</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1822577729526622</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.2147654948531657</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1282483651107379</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.492017</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3134728867909434</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.542571</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3139382128472188</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.1968682798455052</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>26.06095772846988</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>17.029791</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>6.294398135717582</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>28.768624</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>6.04429012154903</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>12.874167</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>2.620101752124628</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.83099</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>0.9935306584263474</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-74.441439098614</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2446,517 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>11.472124</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>15.54540417668191</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>104.274564</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>69.96041522181564</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>63.380699</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>33.77129804877261</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>151.573354</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>63.82599024062115</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>699.8735703176584</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>48.1376</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>65.22928518689677</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>35.223799</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>23.63252848249525</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>91.654014</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>48.83623994365189</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>82.736783</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>34.83961372457582</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>163.6681864666101</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, UNMANUFACTURED; TOBACCO REFUSE</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>7.536672</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>10.21263476467667</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>5.7915</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.885662324679154</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>29.663681</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.80577412493847</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.302911</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.5486425059275124</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-87.08852515615479</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2.962919</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>4.014929876783949</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1.897978</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.273400950991952</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.398674</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.7452590026984238</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.014325</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.4271218907699176</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>4.546630482172476</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.678841</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.629987443481847</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.298673683862634</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.932466</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.4968482156744091</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.695173</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.2927302454067442</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>165.3362443081409</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.07000407030767829</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-57.60747232028627</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.5584157236269486</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.233951558769856</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-49.09090909090909</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-85.91723285978999</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.1410365073936108</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>0.589239</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.7984535742172828</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.029709</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.6908575441048168</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.06004223337180206</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
